--- a/相关性分析.xlsx
+++ b/相关性分析.xlsx
@@ -244,16 +244,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1647825</xdr:colOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>200025</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>15599</xdr:rowOff>
+      <xdr:rowOff>148949</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -270,7 +270,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1647825" y="0"/>
+          <a:off x="3038475" y="133350"/>
           <a:ext cx="7305675" cy="5159099"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
